--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.75363751992066</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.47403345227241</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>124.455910834944</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>20.76378673551848</v>
+        <v>7071.74531360843</v>
       </c>
       <c r="O2" t="n">
-        <v>29.88727962121558</v>
+        <v>6993.890772562212</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.30673521844466</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58.06505722185842</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.1487638471664</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>356.418250515259</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>55.6994373466313</v>
+        <v>9024.733389685653</v>
       </c>
       <c r="O2" t="n">
-        <v>59.81015932530991</v>
+        <v>9724.258249348202</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>13035.4003559201</v>
       </c>
       <c r="O2" t="n">
-        <v>111.1577848800174</v>
+        <v>12860.29685588659</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>13152.9597245459</v>
       </c>
       <c r="O2" t="n">
-        <v>114.8368353270196</v>
+        <v>12860.29685588659</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>13602.17707869884</v>
       </c>
       <c r="O2" t="n">
-        <v>117.9642094413985</v>
+        <v>14937.25576032545</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>13602.17707869884</v>
       </c>
       <c r="O2" t="n">
-        <v>117.9642094413985</v>
+        <v>14937.25576032545</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1053.421688774255</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>290.0628494009765</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13068.95051766531</v>
+        <v>29049.07128553876</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>8095.925712662016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>14967.03797976358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>50999.04857836801</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
+        <v>11228.70813999</v>
       </c>
       <c r="N2" t="n">
-        <v>5913.149655580719</v>
+        <v>7234.065805482222</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.879697557351</v>
+        <v>6679.044411236301</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.640870291864</v>
+        <v>114.6922346758182</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>3792.869563350189</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41688.90291167097</v>
+        <v>45544.13264509721</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>8095.925712662016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366784</v>
+        <v>30995.99350209277</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333453</v>
+        <v>60733.63188199288</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
+        <v>17369.6668008732</v>
       </c>
       <c r="N2" t="n">
-        <v>18605.29221045961</v>
+        <v>9339.457002438534</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.853845350488</v>
+        <v>7854.30060775904</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>2150.246036682161</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>5702.385602455945</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>57607.66341214967</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>8095.925712662016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>47982.57932449386</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>60733.63188199288</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>23258.99805235381</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>13685.76344767679</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>13101.24796481204</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>2150.246036682161</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>5702.385602455945</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>57607.66341214967</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>8095.925712662016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>47982.57932449386</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>60733.63188199288</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>23258.99805235381</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>13685.76344767679</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>13101.24796481204</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>2150.246036682161</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>5702.385602455945</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>57607.66341214967</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>8095.925712662016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>47982.57932449386</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>60733.63188199288</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>23258.99805235381</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>13685.76344767679</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>13101.24796481204</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>2150.246036682161</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>5702.385602455945</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>57607.66341214967</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>8095.925712662016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>47982.57932449386</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>60733.63188199288</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>23258.99805235381</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>13685.76344767679</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>13101.24796481204</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290.0628494009765</v>
+        <v>277.8902526399997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29049.07128553876</v>
+        <v>29092.72506141524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662016</v>
+        <v>8095.925712662093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14967.03797976358</v>
+        <v>14865.25872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50999.04857836801</v>
+        <v>50912.59821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>11228.70813999</v>
+        <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7234.065805482222</v>
+        <v>7270.39941619098</v>
       </c>
       <c r="O2" t="n">
-        <v>6679.044411236301</v>
+        <v>6890.515200515631</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>114.6922346758182</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3792.869563350189</v>
+        <v>5506.32916570769</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45544.13264509721</v>
+        <v>56005.10427174018</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662016</v>
+        <v>8095.925712662093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30995.99350209277</v>
+        <v>36859.48338500719</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60733.63188199288</v>
+        <v>73837.13070482886</v>
       </c>
       <c r="M2" t="n">
-        <v>17369.6668008732</v>
+        <v>21806.186745563</v>
       </c>
       <c r="N2" t="n">
-        <v>9339.457002438534</v>
+        <v>10959.27269082414</v>
       </c>
       <c r="O2" t="n">
-        <v>7854.30060775904</v>
+        <v>9417.058399985341</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2150.246036682161</v>
+        <v>2232.402753895485</v>
       </c>
       <c r="B2" t="n">
-        <v>5702.385602455945</v>
+        <v>6951.177638494421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57607.66341214967</v>
+        <v>67289.88340938435</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662016</v>
+        <v>8095.925712662093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47982.57932449386</v>
+        <v>53206.8045886644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60733.63188199288</v>
+        <v>73837.13070482886</v>
       </c>
       <c r="M2" t="n">
-        <v>23258.99805235381</v>
+        <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>13685.76344767679</v>
+        <v>15985.96622368204</v>
       </c>
       <c r="O2" t="n">
-        <v>13101.24796481204</v>
+        <v>15294.59034761512</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2150.246036682161</v>
+        <v>2232.402753895485</v>
       </c>
       <c r="B2" t="n">
-        <v>5702.385602455945</v>
+        <v>6951.177638494421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57607.66341214967</v>
+        <v>67289.88340938435</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662016</v>
+        <v>8095.925712662093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47982.57932449386</v>
+        <v>53206.8045886644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60733.63188199288</v>
+        <v>73837.13070482886</v>
       </c>
       <c r="M2" t="n">
-        <v>23258.99805235381</v>
+        <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>13685.76344767679</v>
+        <v>15985.96622368204</v>
       </c>
       <c r="O2" t="n">
-        <v>13101.24796481204</v>
+        <v>15294.59034761512</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2150.246036682161</v>
+        <v>2232.402753895485</v>
       </c>
       <c r="B2" t="n">
-        <v>5702.385602455945</v>
+        <v>6951.177638494421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57607.66341214967</v>
+        <v>67289.88340938435</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662016</v>
+        <v>8095.925712662093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47982.57932449386</v>
+        <v>53206.8045886644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60733.63188199288</v>
+        <v>73837.13070482886</v>
       </c>
       <c r="M2" t="n">
-        <v>23258.99805235381</v>
+        <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>13685.76344767679</v>
+        <v>15985.96622368204</v>
       </c>
       <c r="O2" t="n">
-        <v>13101.24796481204</v>
+        <v>15294.59034761512</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2150.246036682161</v>
+        <v>2232.402753895485</v>
       </c>
       <c r="B2" t="n">
-        <v>5702.385602455945</v>
+        <v>6951.177638494421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57607.66341214967</v>
+        <v>67289.88340938435</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662016</v>
+        <v>8095.925712662093</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47982.57932449386</v>
+        <v>53206.8045886644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60733.63188199288</v>
+        <v>73837.13070482886</v>
       </c>
       <c r="M2" t="n">
-        <v>23258.99805235381</v>
+        <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>13685.76344767679</v>
+        <v>15985.96622368204</v>
       </c>
       <c r="O2" t="n">
-        <v>13101.24796481204</v>
+        <v>15294.59034761512</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7071.74531360843</v>
+        <v>7155.07579047334</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.890772562212</v>
+        <v>6980.325566461758</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9024.733389685653</v>
+        <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>9724.258249348202</v>
+        <v>12062.16651258332</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13035.4003559201</v>
+        <v>15131.83576261564</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.29685588659</v>
+        <v>14760.26691511388</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13152.9597245459</v>
+        <v>15236.24445882674</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.29685588659</v>
+        <v>14760.26691511388</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13602.17707869884</v>
+        <v>15771.75564340065</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.25576032545</v>
+        <v>17095.73290146254</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13602.17707869884</v>
+        <v>15771.75564340065</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.25576032545</v>
+        <v>17095.73290146254</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1053.421688774255</v>
+        <v>3903.181680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13068.95051766531</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511094005</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5913.149655580719</v>
+        <v>2465.286422416689</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.879697557351</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.640870291864</v>
+        <v>7745.10982343156</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>192998.6748030985</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41688.90291167097</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366784</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333453</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18605.29221045961</v>
+        <v>9271.328882889477</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.853845350488</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>26186.33681359944</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>293726.0836138186</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17844.33506278396</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>9655.767043218775</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>26186.33681359944</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>293726.0836138186</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17844.33506278396</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>9655.767043218775</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>26186.33681359944</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>293726.0836138186</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17844.33506278396</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>9655.767043218775</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11070.76287090381</v>
+        <v>26186.33681359944</v>
       </c>
       <c r="B2" t="n">
-        <v>491.7513147922718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>293726.0836138186</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101105.4187930368</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17844.33506278396</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>93235.81193739573</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>157698.7637072395</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62885.43877773494</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28794.50914577337</v>
+        <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>26280.74622727003</v>
+        <v>9655.767043218775</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>21.75363751992066</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.47403345227241</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>124.455910834944</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.76378673551848</v>
+        <v>2367.37219622158</v>
       </c>
       <c r="O2" t="n">
-        <v>29.88727962121558</v>
+        <v>1995.762462679798</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.30673521844466</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>58.06505722185842</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.1487638471664</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>356.418250515259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>55.6994373466313</v>
+        <v>7543.193583625169</v>
       </c>
       <c r="O2" t="n">
-        <v>59.81015932530991</v>
+        <v>6257.586732772244</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>12889.44547513058</v>
       </c>
       <c r="O2" t="n">
-        <v>111.1577848800174</v>
+        <v>9263.823477595495</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>14047.29522757375</v>
       </c>
       <c r="O2" t="n">
-        <v>114.8368353270196</v>
+        <v>9263.823477595495</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>16881.30051551449</v>
       </c>
       <c r="O2" t="n">
-        <v>117.9642094413985</v>
+        <v>10096.38017359364</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>124.4830141879476</v>
+        <v>16881.30051551449</v>
       </c>
       <c r="O2" t="n">
-        <v>117.9642094413985</v>
+        <v>10096.38017359364</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2465.286422416689</v>
+        <v>2465.286422416695</v>
       </c>
       <c r="O2" t="n">
         <v>1995.762462679781</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17844.33506278396</v>
+        <v>17844.33506278395</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664685</v>
+        <v>11593.76417664704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767043218775</v>
+        <v>9655.767043218588</v>
       </c>
     </row>
   </sheetData>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17844.33506278396</v>
+        <v>17844.33506278395</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664685</v>
+        <v>11593.76417664704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767043218775</v>
+        <v>9655.767043218588</v>
       </c>
     </row>
   </sheetData>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17844.33506278396</v>
+        <v>17844.33506278395</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664685</v>
+        <v>11593.76417664704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767043218775</v>
+        <v>9655.767043218588</v>
       </c>
     </row>
   </sheetData>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17844.33506278396</v>
+        <v>17844.33506278395</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664685</v>
+        <v>11593.76417664704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>14105.19380914672</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767043218775</v>
+        <v>9655.767043218588</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662093</v>
+        <v>8095.925712661046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50912.59821312752</v>
+        <v>50912.5982131275</v>
       </c>
       <c r="M2" t="n">
         <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7270.39941619098</v>
+        <v>7270.399416191359</v>
       </c>
       <c r="O2" t="n">
-        <v>6890.515200515631</v>
+        <v>6890.515200515625</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5506.32916570769</v>
+        <v>5506.329165705589</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56005.10427174018</v>
+        <v>56005.10427174236</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662093</v>
+        <v>8095.925712661046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73837.13070482886</v>
+        <v>73837.13070482884</v>
       </c>
       <c r="M2" t="n">
         <v>21806.186745563</v>
       </c>
       <c r="N2" t="n">
-        <v>10959.27269082414</v>
+        <v>10959.27269082467</v>
       </c>
       <c r="O2" t="n">
-        <v>9417.058399985341</v>
+        <v>9417.058399985344</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2232.402753895485</v>
+        <v>2232.402753895719</v>
       </c>
       <c r="B2" t="n">
-        <v>6951.177638494421</v>
+        <v>6951.177638494401</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67289.88340938435</v>
+        <v>67289.88340938438</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662093</v>
+        <v>8095.925712661046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53206.8045886644</v>
+        <v>53206.80458866435</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73837.13070482886</v>
+        <v>73837.13070482884</v>
       </c>
       <c r="M2" t="n">
         <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>15985.96622368204</v>
+        <v>15985.96622368199</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.59034761512</v>
+        <v>15294.59034761518</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2232.402753895485</v>
+        <v>2232.402753895719</v>
       </c>
       <c r="B2" t="n">
-        <v>6951.177638494421</v>
+        <v>6951.177638494401</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67289.88340938435</v>
+        <v>67289.88340938438</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662093</v>
+        <v>8095.925712661046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53206.8045886644</v>
+        <v>53206.80458866435</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73837.13070482886</v>
+        <v>73837.13070482884</v>
       </c>
       <c r="M2" t="n">
         <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>15985.96622368204</v>
+        <v>15985.96622368199</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.59034761512</v>
+        <v>15294.59034761518</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2232.402753895485</v>
+        <v>2232.402753895719</v>
       </c>
       <c r="B2" t="n">
-        <v>6951.177638494421</v>
+        <v>6951.177638494401</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67289.88340938435</v>
+        <v>67289.88340938438</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662093</v>
+        <v>8095.925712661046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53206.8045886644</v>
+        <v>53206.80458866435</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73837.13070482886</v>
+        <v>73837.13070482884</v>
       </c>
       <c r="M2" t="n">
         <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>15985.96622368204</v>
+        <v>15985.96622368199</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.59034761512</v>
+        <v>15294.59034761518</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2232.402753895485</v>
+        <v>2232.402753895719</v>
       </c>
       <c r="B2" t="n">
-        <v>6951.177638494421</v>
+        <v>6951.177638494401</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67289.88340938435</v>
+        <v>67289.88340938438</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662093</v>
+        <v>8095.925712661046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53206.8045886644</v>
+        <v>53206.80458866435</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73837.13070482886</v>
+        <v>73837.13070482884</v>
       </c>
       <c r="M2" t="n">
         <v>27593.46631997451</v>
       </c>
       <c r="N2" t="n">
-        <v>15985.96622368204</v>
+        <v>15985.96622368199</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.59034761512</v>
+        <v>15294.59034761518</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_fix_cost.xlsx
+++ b/results/[5_energy_congestion]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7155.07579047334</v>
+        <v>7155.075790473336</v>
       </c>
       <c r="O2" t="n">
-        <v>6980.325566461758</v>
+        <v>6980.325566461754</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>12062.16651258332</v>
+        <v>12079.40905079305</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15131.83576261564</v>
+        <v>15119.05116437215</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.26691511388</v>
+        <v>14761.1605844395</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15236.24445882674</v>
+        <v>15226.1750723931</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.26691511388</v>
+        <v>14761.1605844395</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15771.75564340065</v>
+        <v>15770.90262384333</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.73290146254</v>
+        <v>17096.62657078825</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15771.75564340065</v>
+        <v>15770.90262384333</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.73290146254</v>
+        <v>17096.62657078825</v>
       </c>
     </row>
   </sheetData>
